--- a/data_year/zb/国民经济核算/资金流量表(实物交易)/政府部门/资金运用.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(实物交易)/政府部门/资金运用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,1565 +603,945 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.92886448</v>
+        <v>873.51460946</v>
       </c>
       <c r="C2" t="n">
-        <v>46.88</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>378.4277</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.52695975</v>
+      </c>
       <c r="E2" t="n">
-        <v>-298.3879848</v>
+        <v>-11799.5328113143</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>-6965.1818575102</v>
+        <v>6076.57405984958</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>828.0451773500459</v>
+        <v>4621.56753316185</v>
       </c>
       <c r="J2" t="n">
-        <v>6438.3265488</v>
+        <v>30784.8287044313</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>2986.61892662126</v>
+        <v>22557.0573326279</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="n">
+        <v>342.982385405356</v>
+      </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>2938.00263232725</v>
+        <v>5174.52257056832</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>15661.4</v>
+        <v>53356.4</v>
       </c>
       <c r="W2" t="n">
-        <v>15661.4</v>
+        <v>53356.4</v>
       </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>105.945650284267</v>
+        <v>256.797758200508</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>2385.6</v>
+        <v>16207.243134</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.3656</v>
+        <v>3244.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>949.4607</v>
+        <v>6011.70478653894</v>
       </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="n">
-        <v>3666.35516448</v>
+        <v>26337.3625299989</v>
       </c>
       <c r="AF2" t="n">
-        <v>874.9251773500461</v>
+        <v>4999.99523316185</v>
       </c>
       <c r="AG2" t="n">
-        <v>2986.61892662126</v>
+        <v>22900.0397180333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2938.00263232725</v>
+        <v>5187.04953031832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.13070144</v>
+        <v>965.108624144</v>
       </c>
       <c r="C3" t="n">
-        <v>39.62</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>632.8924</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.254200648</v>
+      </c>
       <c r="E3" t="n">
-        <v>-649.24069461</v>
+        <v>-9033.18675862392</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>-7353.50383018417</v>
+        <v>8408.068585120211</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>922.444303643287</v>
+        <v>6156.00194344033</v>
       </c>
       <c r="J3" t="n">
-        <v>8052.721568</v>
+        <v>34400.0215201856</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>3390.02680415396</v>
+        <v>23433.5747804835</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="n">
+        <v>434.785893931967</v>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>3449.23015631822</v>
+        <v>6219.44472476208</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>17498</v>
+        <v>63154.9</v>
       </c>
       <c r="W3" t="n">
-        <v>17498</v>
+        <v>63154.9</v>
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>120.825893894611</v>
+        <v>300.843121005599</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>2748</v>
+        <v>20363.89</v>
       </c>
       <c r="AB3" t="n">
-        <v>360.6162</v>
+        <v>5416.3794</v>
       </c>
       <c r="AC3" t="n">
-        <v>1124.83</v>
+        <v>7444.17553154888</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>4250.57690144</v>
+        <v>34189.5535556929</v>
       </c>
       <c r="AF3" t="n">
-        <v>962.064303643287</v>
+        <v>6788.89434344033</v>
       </c>
       <c r="AG3" t="n">
-        <v>3390.02680415396</v>
+        <v>23868.3606744154</v>
       </c>
       <c r="AH3" t="n">
-        <v>3449.23015631822</v>
+        <v>6230.69892541008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.47495334</v>
+        <v>859.217705142835</v>
       </c>
       <c r="C4" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>846.947</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.527591455598</v>
+      </c>
       <c r="E4" t="n">
-        <v>-1210.813051518</v>
+        <v>-6317.98594139729</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>-5695.46325998556</v>
+        <v>6453.78627010034</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>835.318558728937</v>
+        <v>6850.58267918007</v>
       </c>
       <c r="J4" t="n">
-        <v>9712.76675574</v>
+        <v>33604.9797657147</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>4017.1254808049</v>
+        <v>25744.1575223218</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>378.270560791651</v>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>3655.70090519552</v>
+        <v>6622.54401217583</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>18759.9</v>
+        <v>71409</v>
       </c>
       <c r="W4" t="n">
-        <v>18759.9</v>
+        <v>71409</v>
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>150.56</v>
+        <v>261.886275100593</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>3471.5</v>
+        <v>23930.6977</v>
       </c>
       <c r="AB4" t="n">
-        <v>565.1</v>
+        <v>6349.4244</v>
       </c>
       <c r="AC4" t="n">
-        <v>1123.64</v>
+        <v>8541.9090330012</v>
       </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
-        <v>5173.71495334</v>
+        <v>39681.248838144</v>
       </c>
       <c r="AF4" t="n">
-        <v>870.718558728937</v>
+        <v>7697.52967918007</v>
       </c>
       <c r="AG4" t="n">
-        <v>4017.1254808049</v>
+        <v>26122.4280831134</v>
       </c>
       <c r="AH4" t="n">
-        <v>3655.70090519552</v>
+        <v>6640.07160363143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.12176872</v>
-      </c>
-      <c r="C5" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>385.046083938832</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>86.23493455612601</v>
+      </c>
       <c r="E5" t="n">
-        <v>-3212.5122</v>
+        <v>-7461.68717393444</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>-5146.02032706789</v>
+        <v>4393.48954548447</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>1202.18807775991</v>
+        <v>5760.18804621232</v>
       </c>
       <c r="J5" t="n">
-        <v>10909.727883774</v>
+        <v>37081.8730996347</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>6265.58760500645</v>
+        <v>27879.7917688431</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="P5" t="n">
+        <v>382.816784807555</v>
+      </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>4041.34349745726</v>
+        <v>7707.34359611097</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>20035.7</v>
+        <v>81245.89999999999</v>
       </c>
       <c r="W5" t="n">
-        <v>20035.7</v>
+        <v>81245.89999999999</v>
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>168.02</v>
+        <v>286.134288323247</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>4016.4</v>
+        <v>28743.9264</v>
       </c>
       <c r="AB5" t="n">
-        <v>558</v>
+        <v>7425.7608</v>
       </c>
       <c r="AC5" t="n">
-        <v>1472.546</v>
+        <v>9899.637091290289</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>6059.06776872</v>
+        <v>46454.3703752291</v>
       </c>
       <c r="AF5" t="n">
-        <v>1246.38807775991</v>
+        <v>5760.18804621232</v>
       </c>
       <c r="AG5" t="n">
-        <v>6265.58760500645</v>
+        <v>28262.6085536507</v>
       </c>
       <c r="AH5" t="n">
-        <v>4041.34349745726</v>
+        <v>7793.5785306671</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.773846656</v>
-      </c>
-      <c r="C6" t="n">
-        <v>58.87</v>
-      </c>
+        <v>281.269668946245</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>5.7132</v>
+        <v>121.253068041948</v>
       </c>
       <c r="E6" t="n">
-        <v>-3425.13543607294</v>
+        <v>-6444.08488254997</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>-1384.86122722145</v>
+        <v>4418.68031914073</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>1052.54073580067</v>
+        <v>6313.06696433777</v>
       </c>
       <c r="J6" t="n">
-        <v>12768.347304151</v>
+        <v>41014.0791479275</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>7568.30525827924</v>
+        <v>33142.4409968048</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>434.858001714696</v>
+      </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>1494.47405628342</v>
+        <v>8161.87595243448</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>22334.12</v>
+        <v>85773</v>
       </c>
       <c r="W6" t="n">
-        <v>22334.12</v>
+        <v>85773</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>349.812671996186</v>
+        <v>304.993532886782</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>4627.4</v>
+        <v>33680.572168</v>
       </c>
       <c r="AB6" t="n">
-        <v>612.62</v>
+        <v>8446.725595</v>
       </c>
       <c r="AC6" t="n">
-        <v>1966.32</v>
+        <v>10419.1763979608</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>7226.113846656</v>
+        <v>52827.7438299071</v>
       </c>
       <c r="AF6" t="n">
-        <v>1111.41073580067</v>
+        <v>6313.06696433777</v>
       </c>
       <c r="AG6" t="n">
-        <v>7568.30525827924</v>
+        <v>33577.2989985195</v>
       </c>
       <c r="AH6" t="n">
-        <v>1500.18725628342</v>
+        <v>8283.12902047643</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.696206806</v>
+        <v>391.726054132278</v>
       </c>
       <c r="C7" t="n">
-        <v>77.09694438</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>4.37</v>
+        <v>12.2659814943525</v>
       </c>
       <c r="E7" t="n">
-        <v>-3179.87587442095</v>
+        <v>-5749.51285928111</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>-336.739235076284</v>
+        <v>-6009.01533615683</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>1255.00275301064</v>
+        <v>7748.72729846278</v>
       </c>
       <c r="J7" t="n">
-        <v>14470.610331202</v>
+        <v>48215.8634490861</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>8385.826292805379</v>
+        <v>37370.1924281144</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>389.131366352306</v>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>1781.96573481963</v>
+        <v>8750.59887493405</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>26398.83</v>
+        <v>96286.39999999999</v>
       </c>
       <c r="W7" t="n">
-        <v>26398.83</v>
+        <v>96286.39999999999</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>418.313423204996</v>
+        <v>318.647023498113</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>5400.8</v>
+        <v>39117.6609268015</v>
       </c>
       <c r="AB7" t="n">
-        <v>668.1</v>
+        <v>10244.1680663699</v>
       </c>
       <c r="AC7" t="n">
-        <v>2179.35</v>
+        <v>11396.5862942189</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>8355.946206806</v>
+        <v>61150.1413415226</v>
       </c>
       <c r="AF7" t="n">
-        <v>1332.09969739064</v>
+        <v>7758.52729846278</v>
       </c>
       <c r="AG7" t="n">
-        <v>8385.826292805379</v>
+        <v>37759.3237944667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1786.33573481963</v>
+        <v>8762.864856428399</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118.053453548</v>
+        <v>232.757281669493</v>
       </c>
       <c r="C8" t="n">
-        <v>102.3743</v>
+        <v>1695.50886541999</v>
       </c>
       <c r="D8" t="n">
-        <v>6.56557448</v>
+        <v>43.7851444608298</v>
       </c>
       <c r="E8" t="n">
-        <v>-4345.772849138</v>
+        <v>-10234.8222588779</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>1897.6565533414</v>
+        <v>-20401.7203891239</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>1796.04044691879</v>
+        <v>7802.55389339614</v>
       </c>
       <c r="J8" t="n">
-        <v>16651.832891667</v>
+        <v>53966.9386823627</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>10231.4299703403</v>
+        <v>46592.6975876191</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>920.553161339093</v>
+      </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>1965.08540190759</v>
+        <v>9002.0361225834</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>30528.4</v>
+        <v>106467</v>
       </c>
       <c r="W8" t="n">
-        <v>30528.4</v>
+        <v>106467</v>
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>486.012615577961</v>
+        <v>342.350798740044</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>6477.4</v>
+        <v>43604.8474</v>
       </c>
       <c r="AB8" t="n">
-        <v>960.4</v>
+        <v>11088.6033</v>
       </c>
       <c r="AC8" t="n">
-        <v>2735.81</v>
+        <v>12230.0608460594</v>
       </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>10291.663453548</v>
+        <v>67156.2688277289</v>
       </c>
       <c r="AF8" t="n">
-        <v>1898.41474691879</v>
+        <v>9498.06275881613</v>
       </c>
       <c r="AG8" t="n">
-        <v>10231.4299703403</v>
+        <v>47513.2507489582</v>
       </c>
       <c r="AH8" t="n">
-        <v>1971.65097638759</v>
+        <v>9045.82126704423</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.60585808</v>
+        <v>216.74343784869</v>
       </c>
       <c r="C9" t="n">
-        <v>164.9</v>
+        <v>1977.80766455069</v>
       </c>
       <c r="D9" t="n">
-        <v>16.3957448</v>
+        <v>21.7627097274279</v>
       </c>
       <c r="E9" t="n">
-        <v>-6611.3146993862</v>
+        <v>-14345.9881841308</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>8462.731983975929</v>
+        <v>-21036.1245750768</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>2380.48320734088</v>
+        <v>7778.52858870277</v>
       </c>
       <c r="J9" t="n">
-        <v>20640.858298</v>
+        <v>62200.4222206711</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>11571.3723818641</v>
+        <v>52219.3804837864</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>1214.69551912752</v>
+      </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>2507.65918760924</v>
+        <v>9884.90494472952</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>35900.4</v>
+        <v>119188</v>
       </c>
       <c r="W9" t="n">
-        <v>35900.4</v>
+        <v>119188</v>
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>594.43956535102</v>
+        <v>369.975299987341</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>7887.9</v>
+        <v>48652.99</v>
       </c>
       <c r="AB9" t="n">
-        <v>1218.87</v>
+        <v>12351.76</v>
       </c>
       <c r="AC9" t="n">
-        <v>3269.44989</v>
+        <v>13105.6922059488</v>
       </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
-        <v>12539.82574808</v>
+        <v>74327.18564379749</v>
       </c>
       <c r="AF9" t="n">
-        <v>2545.38320734088</v>
+        <v>9756.336253253459</v>
       </c>
       <c r="AG9" t="n">
-        <v>11571.3723818641</v>
+        <v>53434.0760029139</v>
       </c>
       <c r="AH9" t="n">
-        <v>2524.05493240924</v>
+        <v>9906.667654456949</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.575175881</v>
+        <v>218.205476264215</v>
       </c>
       <c r="C10" t="n">
-        <v>267.1745</v>
+        <v>1864.70305583287</v>
       </c>
       <c r="D10" t="n">
-        <v>18.64611084</v>
+        <v>58.1736367619158</v>
       </c>
       <c r="E10" t="n">
-        <v>-4421.97327849</v>
+        <v>-18086.4530452339</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>5735.98970136105</v>
+        <v>-44968.4965145732</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>3587.13707345228</v>
+        <v>8620.36544443158</v>
       </c>
       <c r="J10" t="n">
-        <v>23889.80345</v>
+        <v>81435.0071898274</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>14713.1292579058</v>
+        <v>70477.632440863</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>351.6415</v>
+        <v>48.5400229168818</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>3162.56915715007</v>
+        <v>11745.6665216678</v>
       </c>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="n">
-        <v>41752.1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>41752.1</v>
-      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>498.230582126769</v>
+        <v>289.691008137622</v>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>9925.1</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1560.83</v>
-      </c>
+        <v>49586.7</v>
+      </c>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>5061.73</v>
+        <v>14868.6832923223</v>
       </c>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
-        <v>16730.235175881</v>
+        <v>64673.5887685865</v>
       </c>
       <c r="AF10" t="n">
-        <v>3854.31157345228</v>
+        <v>10485.0685002645</v>
       </c>
       <c r="AG10" t="n">
-        <v>15064.7707579058</v>
+        <v>70526.17246377991</v>
       </c>
       <c r="AH10" t="n">
-        <v>3181.21526799007</v>
+        <v>11803.8401584297</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.16261801</v>
+        <v>249.569784218361</v>
       </c>
       <c r="C11" t="n">
-        <v>317.4683642265</v>
+        <v>2259.29964526883</v>
       </c>
       <c r="D11" t="n">
-        <v>13.662</v>
+        <v>37.6906310412767</v>
       </c>
       <c r="E11" t="n">
-        <v>-7530.59622031318</v>
+        <v>-23941.8271848583</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>2044.98878816633</v>
+        <v>-22943.5683925559</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>3813.8005529816</v>
+        <v>9767.60819816675</v>
       </c>
       <c r="J11" t="n">
-        <v>27499.13012615</v>
+        <v>89252.9266947022</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>19306.9918218316</v>
+        <v>43890.791494596</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>267.258912427448</v>
+        <v>10.3412527383687</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>3817.29234893689</v>
+        <v>12889.7094648449</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
-        <v>45690.2</v>
+        <v>106974.081106592</v>
       </c>
       <c r="W11" t="n">
-        <v>45690.2</v>
+        <v>106974.081106592</v>
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>210.165919133921</v>
+        <v>300.189311898936</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>12302.6</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1694.7</v>
-      </c>
+        <v>53979.95</v>
+      </c>
+      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>6136.6139</v>
+        <v>15749.3550517862</v>
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>20524.07651801</v>
+        <v>69978.8748360046</v>
       </c>
       <c r="AF11" t="n">
-        <v>4131.2689172081</v>
+        <v>12026.9078434356</v>
       </c>
       <c r="AG11" t="n">
-        <v>19574.2507342591</v>
+        <v>43901.1327473344</v>
       </c>
       <c r="AH11" t="n">
-        <v>3830.95434893689</v>
+        <v>12927.4000958861</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>873.51460946</v>
+        <v>251.474656789318</v>
       </c>
       <c r="C12" t="n">
-        <v>378.4277</v>
+        <v>2223.25342663464</v>
       </c>
       <c r="D12" t="n">
-        <v>12.52695975</v>
+        <v>16.9201652074632</v>
       </c>
       <c r="E12" t="n">
-        <v>-11799.5328113143</v>
+        <v>-33950.7199479188</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>6076.57405984958</v>
+        <v>-60641.7517245242</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>4621.56753316185</v>
+        <v>10663.7865186406</v>
       </c>
       <c r="J12" t="n">
-        <v>30784.8287044313</v>
+        <v>93502.00630479871</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>22557.0573326279</v>
+        <v>55950.4182642186</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>342.982385405356</v>
+        <v>13.7498871275022</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>5174.52257056832</v>
+        <v>14565.0244393315</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
-        <v>53356.4</v>
+        <v>105606.226865178</v>
       </c>
       <c r="W12" t="n">
-        <v>53356.4</v>
+        <v>105606.226865178</v>
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>256.797758200508</v>
+        <v>284.089028465525</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>16207.243134</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>3244.9</v>
-      </c>
+        <v>57360.01</v>
+      </c>
+      <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>6011.70478653894</v>
+        <v>16373.4061564836</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>26337.3625299989</v>
+        <v>73984.8908132729</v>
       </c>
       <c r="AF12" t="n">
-        <v>4999.99523316185</v>
+        <v>12887.0399452752</v>
       </c>
       <c r="AG12" t="n">
-        <v>22900.0397180333</v>
+        <v>55964.1681513461</v>
       </c>
       <c r="AH12" t="n">
-        <v>5187.04953031832</v>
+        <v>14581.944604539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>965.108624144</v>
+        <v>253.388750806465</v>
       </c>
       <c r="C13" t="n">
-        <v>632.8924</v>
+        <v>2089.12346453765</v>
       </c>
       <c r="D13" t="n">
-        <v>11.254200648</v>
+        <v>10.7081749114211</v>
       </c>
       <c r="E13" t="n">
-        <v>-9033.18675862392</v>
+        <v>-36879.0387814338</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>8408.068585120211</v>
+        <v>-34981.5859384864</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>6156.00194344033</v>
+        <v>11401.5839523604</v>
       </c>
       <c r="J13" t="n">
-        <v>34400.0215201856</v>
+        <v>99907.0199758521</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>23433.5747804835</v>
+        <v>61135.8992587048</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>434.785893931967</v>
+        <v>16.422883485705</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>6219.44472476208</v>
+        <v>14014.790854207</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
-        <v>63154.9</v>
+        <v>108351.990559686</v>
       </c>
       <c r="W13" t="n">
-        <v>63154.9</v>
+        <v>108351.990559686</v>
       </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>300.843121005599</v>
+        <v>310.772774102357</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>20363.89</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>5416.3794</v>
-      </c>
+        <v>62503.83</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
-        <v>7444.17553154888</v>
+        <v>15623.8942289703</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>34189.5535556929</v>
+        <v>78381.11297977679</v>
       </c>
       <c r="AF13" t="n">
-        <v>6788.89434344033</v>
+        <v>13490.707416898</v>
       </c>
       <c r="AG13" t="n">
-        <v>23868.3606744154</v>
+        <v>61152.3221421905</v>
       </c>
       <c r="AH13" t="n">
-        <v>6230.69892541008</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>859.217705142835</v>
-      </c>
-      <c r="C14" t="n">
-        <v>846.947</v>
-      </c>
-      <c r="D14" t="n">
-        <v>17.527591455598</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-6317.98594139729</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>6453.78627010034</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>6850.58267918007</v>
-      </c>
-      <c r="J14" t="n">
-        <v>33604.9797657147</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>25744.1575223218</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>378.270560791651</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>6622.54401217583</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="n">
-        <v>71409</v>
-      </c>
-      <c r="W14" t="n">
-        <v>71409</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>261.886275100593</v>
-      </c>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="n">
-        <v>23930.6977</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>6349.4244</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8541.9090330012</v>
-      </c>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="n">
-        <v>39681.248838144</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7697.52967918007</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>26122.4280831134</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6640.07160363143</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>385.046083938832</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>86.23493455612601</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-7461.68717393444</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>4393.48954548447</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>5760.18804621232</v>
-      </c>
-      <c r="J15" t="n">
-        <v>37081.8730996347</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>27879.7917688431</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
-        <v>382.816784807555</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>7707.34359611097</v>
-      </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="n">
-        <v>81245.89999999999</v>
-      </c>
-      <c r="W15" t="n">
-        <v>81245.89999999999</v>
-      </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="n">
-        <v>286.134288323247</v>
-      </c>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="n">
-        <v>28743.9264</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>7425.7608</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9899.637091290289</v>
-      </c>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="n">
-        <v>46454.3703752291</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>5760.18804621232</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>28262.6085536507</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>7793.5785306671</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>281.269668946245</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>121.253068041948</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-6444.08488254997</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>4418.68031914073</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>6313.06696433777</v>
-      </c>
-      <c r="J16" t="n">
-        <v>41014.0791479275</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>33142.4409968048</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
-        <v>434.858001714696</v>
-      </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>8161.87595243448</v>
-      </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="n">
-        <v>85773</v>
-      </c>
-      <c r="W16" t="n">
-        <v>85773</v>
-      </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="n">
-        <v>304.993532886782</v>
-      </c>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="n">
-        <v>33680.572168</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>8446.725595</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10419.1763979608</v>
-      </c>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="n">
-        <v>52827.7438299071</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>6313.06696433777</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>33577.2989985195</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>8283.12902047643</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>391.726054132278</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12.2659814943525</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-5749.51285928111</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>-6009.01533615683</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>7748.72729846278</v>
-      </c>
-      <c r="J17" t="n">
-        <v>48215.8634490861</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>37370.1924281144</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
-        <v>389.131366352306</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
-        <v>8750.59887493405</v>
-      </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="n">
-        <v>96286.39999999999</v>
-      </c>
-      <c r="W17" t="n">
-        <v>96286.39999999999</v>
-      </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
-        <v>318.647023498113</v>
-      </c>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="n">
-        <v>39117.6609268015</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>10244.1680663699</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11396.5862942189</v>
-      </c>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="n">
-        <v>61150.1413415226</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>7758.52729846278</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>37759.3237944667</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>8762.864856428399</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>232.757281669493</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1695.50886541999</v>
-      </c>
-      <c r="D18" t="n">
-        <v>43.7851444608298</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-10234.8222588779</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>-20401.7203891239</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>7802.55389339614</v>
-      </c>
-      <c r="J18" t="n">
-        <v>53966.9386823627</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>46592.6975876191</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
-        <v>920.553161339093</v>
-      </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>9002.0361225834</v>
-      </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="n">
-        <v>106467</v>
-      </c>
-      <c r="W18" t="n">
-        <v>106467</v>
-      </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="n">
-        <v>342.350798740044</v>
-      </c>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
-        <v>43604.8474</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11088.6033</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>12230.0608460594</v>
-      </c>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="n">
-        <v>67156.2688277289</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>9498.06275881613</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>47513.2507489582</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>9045.82126704423</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>216.74343784869</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1977.80766455069</v>
-      </c>
-      <c r="D19" t="n">
-        <v>21.7627097274279</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-14345.9881841308</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>-21036.1245750768</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>7778.52858870277</v>
-      </c>
-      <c r="J19" t="n">
-        <v>62200.4222206711</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>52219.3804837864</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
-        <v>1214.69551912752</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>9884.90494472952</v>
-      </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="n">
-        <v>119188</v>
-      </c>
-      <c r="W19" t="n">
-        <v>119188</v>
-      </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="n">
-        <v>369.975299987341</v>
-      </c>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="n">
-        <v>48652.99</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>12351.76</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13105.6922059488</v>
-      </c>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="n">
-        <v>74327.18564379749</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>9756.336253253459</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>53434.0760029139</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>9906.667654456949</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>218.205476264215</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1864.70305583287</v>
-      </c>
-      <c r="D20" t="n">
-        <v>58.1736367619158</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-18086.4530452339</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>-44968.4965145732</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>8620.36544443158</v>
-      </c>
-      <c r="J20" t="n">
-        <v>81435.0071898274</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>70477.632440863</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
-        <v>48.5400229168818</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
-        <v>11745.6665216678</v>
-      </c>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="n">
-        <v>289.691008137622</v>
-      </c>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="n">
-        <v>49586.7</v>
-      </c>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="n">
-        <v>14868.6832923223</v>
-      </c>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="n">
-        <v>64673.5887685865</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>10485.0685002645</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>70526.17246377991</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>11803.8401584297</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>249.569784218361</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2259.29964526883</v>
-      </c>
-      <c r="D21" t="n">
-        <v>37.6906310412767</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-23941.8271848583</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>-22943.5683925559</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>9767.60819816675</v>
-      </c>
-      <c r="J21" t="n">
-        <v>89252.9266947022</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>43890.791494596</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>10.3412527383687</v>
-      </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
-        <v>12889.7094648449</v>
-      </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="n">
-        <v>106974.081106592</v>
-      </c>
-      <c r="W21" t="n">
-        <v>106974.081106592</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
-        <v>300.189311898936</v>
-      </c>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="n">
-        <v>53979.95</v>
-      </c>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="n">
-        <v>15749.3550517862</v>
-      </c>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="n">
-        <v>69978.8748360046</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>12026.9078434356</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>43901.1327473344</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>12927.4000958861</v>
+        <v>14025.4990291184</v>
       </c>
     </row>
   </sheetData>
